--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Training.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E66F00A-41C9-4F40-87FD-5E517069D93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AF619E-1406-4905-9A5A-7C1AE453CA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>company_code</t>
   </si>
@@ -100,12 +100,21 @@
   </si>
   <si>
     <t>etc.</t>
+  </si>
+  <si>
+    <t>emptraining_count</t>
+  </si>
+  <si>
+    <t>ครั้งที่</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,13 +198,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -221,9 +227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,9 +267,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,26 +302,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,26 +337,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -553,8 +525,8 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
     <col min="9" max="9" width="20.88671875" customWidth="1"/>
@@ -570,7 +542,7 @@
     <col min="22" max="22" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,30 +570,33 @@
       <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="8">
         <v>43619</v>
       </c>
       <c r="F2" s="8">
-        <v>45081</v>
-      </c>
-      <c r="G2" s="7" t="s">
+        <v>43620</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="3">
@@ -629,6 +604,12 @@
       </c>
       <c r="I2" s="3">
         <v>5000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +621,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -653,14 +634,14 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.109375" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="9" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,11 +669,14 @@
       <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,29 +705,32 @@
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="8">
         <v>43619</v>
       </c>
       <c r="F3" s="8">
-        <v>45081</v>
-      </c>
-      <c r="G3" s="7" t="s">
+        <v>43620</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="3">
@@ -752,7 +739,10 @@
       <c r="I3" s="3">
         <v>5000</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
